--- a/data/vaccine/alpha_delta_effect.xlsx
+++ b/data/vaccine/alpha_delta_effect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14274" windowHeight="6736" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15138" windowHeight="13385" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="effect" sheetId="1" r:id="rId4"/>
@@ -19,174 +19,591 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+  <x:si>
+    <x:t>2021.03.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.03.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date/effect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.15</x:t>
+  </x:si>
   <x:si>
     <x:t>2021.09.12</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.09.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.05</x:t>
+    <x:t>2021.08.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.09.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.16</x:t>
   </x:si>
   <x:si>
     <x:t>2021.08.09</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.08.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.10</x:t>
+    <x:t>2021.08.12</x:t>
   </x:si>
   <x:si>
     <x:t>2021.09.04</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.08.12</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021.08.06</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.08.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.25</x:t>
+    <x:t>2021.08.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.03</x:t>
   </x:si>
   <x:si>
     <x:t>2021.07.27</x:t>
   </x:si>
   <x:si>
+    <x:t>2021.08.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.23</x:t>
+  </x:si>
+  <x:si>
     <x:t>2021.07.30</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.08.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.20</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021.08.07</x:t>
   </x:si>
   <x:si>
     <x:t>2021.08.15</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.08.03</x:t>
+    <x:t>2021.08.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.13</x:t>
   </x:si>
   <x:si>
     <x:t>2021.08.21</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.08.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.10</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021.05.04</x:t>
   </x:si>
   <x:si>
+    <x:t>2021.04.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.07.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.08.01</x:t>
+  </x:si>
+  <x:si>
     <x:t>2021.07.31</x:t>
   </x:si>
   <x:si>
     <x:t>2021.04.25</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.04.27</x:t>
+    <x:t>2021.04.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.04.28</x:t>
   </x:si>
   <x:si>
     <x:t>2021.07.26</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.07.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.29</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021.05.02</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.05.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.28</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021.05.05</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.04.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.16</x:t>
+    <x:t>2021.05.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.17</x:t>
   </x:si>
   <x:si>
     <x:t>2021.05.10</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.05.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.09</x:t>
+    <x:t>2021.05.07</x:t>
   </x:si>
   <x:si>
     <x:t>2021.05.08</x:t>
@@ -195,484 +612,109 @@
     <x:t>2021.05.15</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.05.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.17</x:t>
+    <x:t>2021.05.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.18</x:t>
   </x:si>
   <x:si>
     <x:t>2021.05.11</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.05.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.19</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021.05.12</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.05.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.31</x:t>
+    <x:t>2021.05.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.05.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.06.03</x:t>
   </x:si>
   <x:si>
     <x:t>2021.06.04</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.05.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.03</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021.06.05</x:t>
   </x:si>
   <x:si>
     <x:t>2021.06.01</x:t>
   </x:si>
   <x:si>
-    <x:t>2021.05.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.05.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.06.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.07.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.03.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.04.31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.08.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021.09.07</x:t>
+    <x:t>alpha</x:t>
   </x:si>
   <x:si>
     <x:t>delta</x:t>
   </x:si>
   <x:si>
-    <x:t>alpha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>date/effect</x:t>
+    <x:t>2021.02.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021.02.26</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1401,10 +1443,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C216"/>
+  <x:dimension ref="A1:C230"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B95" activeCellId="0" sqref="B95:C216"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1416,172 +1458,172 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
         <x:v>216</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>215</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="B2" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="1" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="B3" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B4" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C4" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="B5" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C5" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="1" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="B6" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="1" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B7" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C7" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="B8" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B9" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C9" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="B10" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C10" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="1" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B11" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C11" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="B12" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C12" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="B13" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C13" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="1" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="B14" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C14" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="B15" s="1">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C15" s="1">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" customFormat="1">
+      <x:c r="A2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" customFormat="1">
+      <x:c r="A3" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" customFormat="1">
+      <x:c r="A4" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" customFormat="1">
+      <x:c r="A5" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B5">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C5">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" customFormat="1">
+      <x:c r="A6" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B6">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" customFormat="1">
+      <x:c r="A7" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B7">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" customFormat="1">
+      <x:c r="A8" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" customFormat="1">
+      <x:c r="A9" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B9">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" customFormat="1">
+      <x:c r="A10" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B10">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" customFormat="1">
+      <x:c r="A11" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B11">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" customFormat="1">
+      <x:c r="A12" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B12">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C12">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" customFormat="1">
+      <x:c r="A13" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B13">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" customFormat="1">
+      <x:c r="A14" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B14">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3" customFormat="1">
+      <x:c r="A15" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B15">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B16" s="1">
         <x:v>1</x:v>
@@ -1592,7 +1634,7 @@
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B17" s="1">
         <x:v>1</x:v>
@@ -1603,7 +1645,7 @@
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="1">
         <x:v>1</x:v>
@@ -1614,7 +1656,7 @@
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="1">
         <x:v>1</x:v>
@@ -1625,7 +1667,7 @@
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="1">
         <x:v>1</x:v>
@@ -1636,7 +1678,7 @@
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B21" s="1">
         <x:v>1</x:v>
@@ -1647,7 +1689,7 @@
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B22" s="1">
         <x:v>1</x:v>
@@ -1658,7 +1700,7 @@
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B23" s="1">
         <x:v>1</x:v>
@@ -1669,7 +1711,7 @@
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B24" s="1">
         <x:v>1</x:v>
@@ -1680,7 +1722,7 @@
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B25" s="1">
         <x:v>1</x:v>
@@ -1691,7 +1733,7 @@
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B26" s="1">
         <x:v>1</x:v>
@@ -1702,7 +1744,7 @@
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B27" s="1">
         <x:v>1</x:v>
@@ -1713,7 +1755,7 @@
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="1">
         <x:v>1</x:v>
@@ -1724,7 +1766,7 @@
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B29" s="1">
         <x:v>1</x:v>
@@ -1735,7 +1777,7 @@
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B30" s="1">
         <x:v>1</x:v>
@@ -1746,7 +1788,7 @@
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B31" s="1">
         <x:v>1</x:v>
@@ -1757,7 +1799,7 @@
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B32" s="1">
         <x:v>1</x:v>
@@ -1768,7 +1810,7 @@
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B33" s="1">
         <x:v>1</x:v>
@@ -1779,7 +1821,7 @@
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B34" s="1">
         <x:v>1</x:v>
@@ -1790,7 +1832,7 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B35" s="1">
         <x:v>1</x:v>
@@ -1801,7 +1843,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B36" s="1">
         <x:v>1</x:v>
@@ -1812,7 +1854,7 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="1">
         <x:v>1</x:v>
@@ -1823,7 +1865,7 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B38" s="1">
         <x:v>1</x:v>
@@ -1834,7 +1876,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B39" s="1">
         <x:v>1</x:v>
@@ -1845,7 +1887,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B40" s="1">
         <x:v>1</x:v>
@@ -1856,7 +1898,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B41" s="1">
         <x:v>1</x:v>
@@ -1867,7 +1909,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B42" s="1">
         <x:v>1</x:v>
@@ -1878,7 +1920,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B43" s="1">
         <x:v>1</x:v>
@@ -1889,7 +1931,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B44" s="1">
         <x:v>1</x:v>
@@ -1900,7 +1942,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B45" s="1">
         <x:v>1</x:v>
@@ -1911,7 +1953,7 @@
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B46" s="1">
         <x:v>1</x:v>
@@ -1922,7 +1964,7 @@
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B47" s="1">
         <x:v>1</x:v>
@@ -1933,7 +1975,7 @@
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B48" s="1">
         <x:v>1</x:v>
@@ -1944,7 +1986,7 @@
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B49" s="1">
         <x:v>1</x:v>
@@ -1955,7 +1997,7 @@
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B50" s="1">
         <x:v>1</x:v>
@@ -1966,7 +2008,7 @@
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B51" s="1">
         <x:v>1</x:v>
@@ -1977,7 +2019,7 @@
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B52" s="1">
         <x:v>1</x:v>
@@ -1988,7 +2030,7 @@
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B53" s="1">
         <x:v>1</x:v>
@@ -1999,7 +2041,7 @@
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B54" s="1">
         <x:v>1</x:v>
@@ -2010,7 +2052,7 @@
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B55" s="1">
         <x:v>1</x:v>
@@ -2021,7 +2063,7 @@
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B56" s="1">
         <x:v>1</x:v>
@@ -2032,7 +2074,7 @@
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B57" s="1">
         <x:v>1</x:v>
@@ -2043,7 +2085,7 @@
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B58" s="1">
         <x:v>1</x:v>
@@ -2054,7 +2096,7 @@
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B59" s="1">
         <x:v>1</x:v>
@@ -2065,7 +2107,7 @@
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B60" s="1">
         <x:v>1</x:v>
@@ -2076,7 +2118,7 @@
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B61" s="1">
         <x:v>1</x:v>
@@ -2087,7 +2129,7 @@
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B62" s="1">
         <x:v>1</x:v>
@@ -2098,7 +2140,7 @@
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B63" s="1">
         <x:v>1</x:v>
@@ -2109,7 +2151,7 @@
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B64" s="1">
         <x:v>1</x:v>
@@ -2120,7 +2162,7 @@
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B65" s="1">
         <x:v>1</x:v>
@@ -2131,7 +2173,7 @@
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B66" s="1">
         <x:v>1</x:v>
@@ -2142,7 +2184,7 @@
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B67" s="1">
         <x:v>1</x:v>
@@ -2153,7 +2195,7 @@
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B68" s="1">
         <x:v>1</x:v>
@@ -2164,7 +2206,7 @@
     </x:row>
     <x:row r="69" spans="1:3">
       <x:c r="A69" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B69" s="1">
         <x:v>1</x:v>
@@ -2175,7 +2217,7 @@
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B70" s="1">
         <x:v>1</x:v>
@@ -2186,7 +2228,7 @@
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B71" s="1">
         <x:v>1</x:v>
@@ -2197,7 +2239,7 @@
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B72" s="1">
         <x:v>1</x:v>
@@ -2208,7 +2250,7 @@
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B73" s="1">
         <x:v>1</x:v>
@@ -2219,7 +2261,7 @@
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B74" s="1">
         <x:v>1</x:v>
@@ -2230,7 +2272,7 @@
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B75" s="1">
         <x:v>1</x:v>
@@ -2241,7 +2283,7 @@
     </x:row>
     <x:row r="76" spans="1:3">
       <x:c r="A76" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B76" s="1">
         <x:v>1</x:v>
@@ -2252,7 +2294,7 @@
     </x:row>
     <x:row r="77" spans="1:3">
       <x:c r="A77" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B77" s="1">
         <x:v>1</x:v>
@@ -2263,7 +2305,7 @@
     </x:row>
     <x:row r="78" spans="1:3">
       <x:c r="A78" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B78" s="1">
         <x:v>1</x:v>
@@ -2274,7 +2316,7 @@
     </x:row>
     <x:row r="79" spans="1:3">
       <x:c r="A79" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B79" s="1">
         <x:v>1</x:v>
@@ -2285,7 +2327,7 @@
     </x:row>
     <x:row r="80" spans="1:3">
       <x:c r="A80" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B80" s="1">
         <x:v>1</x:v>
@@ -2296,7 +2338,7 @@
     </x:row>
     <x:row r="81" spans="1:3">
       <x:c r="A81" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B81" s="1">
         <x:v>1</x:v>
@@ -2307,7 +2349,7 @@
     </x:row>
     <x:row r="82" spans="1:3">
       <x:c r="A82" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B82" s="1">
         <x:v>1</x:v>
@@ -2318,7 +2360,7 @@
     </x:row>
     <x:row r="83" spans="1:3">
       <x:c r="A83" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B83" s="1">
         <x:v>1</x:v>
@@ -2329,7 +2371,7 @@
     </x:row>
     <x:row r="84" spans="1:3">
       <x:c r="A84" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B84" s="1">
         <x:v>1</x:v>
@@ -2340,7 +2382,7 @@
     </x:row>
     <x:row r="85" spans="1:3">
       <x:c r="A85" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B85" s="1">
         <x:v>1</x:v>
@@ -2351,7 +2393,7 @@
     </x:row>
     <x:row r="86" spans="1:3">
       <x:c r="A86" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B86" s="1">
         <x:v>1</x:v>
@@ -2362,7 +2404,7 @@
     </x:row>
     <x:row r="87" spans="1:3">
       <x:c r="A87" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B87" s="1">
         <x:v>1</x:v>
@@ -2373,7 +2415,7 @@
     </x:row>
     <x:row r="88" spans="1:3">
       <x:c r="A88" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B88" s="1">
         <x:v>1</x:v>
@@ -2384,7 +2426,7 @@
     </x:row>
     <x:row r="89" spans="1:3">
       <x:c r="A89" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B89" s="1">
         <x:v>1</x:v>
@@ -2395,7 +2437,7 @@
     </x:row>
     <x:row r="90" spans="1:3">
       <x:c r="A90" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B90" s="1">
         <x:v>1</x:v>
@@ -2406,7 +2448,7 @@
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B91" s="1">
         <x:v>1</x:v>
@@ -2417,7 +2459,7 @@
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B92" s="1">
         <x:v>1</x:v>
@@ -2428,7 +2470,7 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B93" s="1">
         <x:v>1</x:v>
@@ -2439,7 +2481,7 @@
     </x:row>
     <x:row r="94" spans="1:3">
       <x:c r="A94" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B94" s="1">
         <x:v>1</x:v>
@@ -2450,233 +2492,233 @@
     </x:row>
     <x:row r="95" spans="1:3">
       <x:c r="A95" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B95" s="1">
-        <x:v>0.95299999999999996</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C95" s="1">
-        <x:v>0.046999999999999997</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:3">
       <x:c r="A96" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B96" s="1">
-        <x:v>0.95299999999999996</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C96" s="1">
-        <x:v>0.046999999999999997</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:3">
       <x:c r="A97" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B97" s="1">
-        <x:v>0.95299999999999996</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C97" s="1">
-        <x:v>0.046999999999999997</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:3">
       <x:c r="A98" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B98" s="1">
-        <x:v>0.95299999999999996</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C98" s="1">
-        <x:v>0.046999999999999997</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:3">
       <x:c r="A99" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B99" s="1">
-        <x:v>0.95299999999999996</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C99" s="1">
-        <x:v>0.046999999999999997</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:3">
       <x:c r="A100" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B100" s="1">
-        <x:v>0.97199999999999998</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C100" s="1">
-        <x:v>0.028000000000000003</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:3">
       <x:c r="A101" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B101" s="1">
-        <x:v>0.97199999999999998</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C101" s="1">
-        <x:v>0.028000000000000003</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:3">
       <x:c r="A102" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B102" s="1">
-        <x:v>0.97199999999999998</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C102" s="1">
-        <x:v>0.028000000000000003</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:3">
       <x:c r="A103" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B103" s="1">
-        <x:v>0.97199999999999998</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C103" s="1">
-        <x:v>0.028000000000000003</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:3">
       <x:c r="A104" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B104" s="1">
-        <x:v>0.97199999999999998</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C104" s="1">
-        <x:v>0.028000000000000003</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:3">
       <x:c r="A105" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B105" s="1">
-        <x:v>0.97199999999999998</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C105" s="1">
-        <x:v>0.028000000000000003</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:3">
       <x:c r="A106" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B106" s="1">
-        <x:v>0.97199999999999998</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C106" s="1">
-        <x:v>0.028000000000000003</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:3">
       <x:c r="A107" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B107" s="1">
-        <x:v>0.96399999999999997</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C107" s="1">
-        <x:v>0.035999999999999999</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:3">
       <x:c r="A108" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B108" s="1">
-        <x:v>0.96399999999999997</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C108" s="1">
-        <x:v>0.035999999999999999</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:3">
       <x:c r="A109" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B109" s="1">
-        <x:v>0.96399999999999997</x:v>
+        <x:v>0.95299999999999996</x:v>
       </x:c>
       <x:c r="C109" s="1">
-        <x:v>0.035999999999999999</x:v>
+        <x:v>0.046999999999999997</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:3">
       <x:c r="A110" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B110" s="1">
-        <x:v>0.96399999999999997</x:v>
+        <x:v>0.95299999999999996</x:v>
       </x:c>
       <x:c r="C110" s="1">
-        <x:v>0.035999999999999999</x:v>
+        <x:v>0.046999999999999997</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:3">
       <x:c r="A111" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B111" s="1">
-        <x:v>0.96399999999999997</x:v>
+        <x:v>0.95299999999999996</x:v>
       </x:c>
       <x:c r="C111" s="1">
-        <x:v>0.035999999999999999</x:v>
+        <x:v>0.046999999999999997</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:3">
       <x:c r="A112" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B112" s="1">
-        <x:v>0.96399999999999997</x:v>
+        <x:v>0.95299999999999996</x:v>
       </x:c>
       <x:c r="C112" s="1">
-        <x:v>0.035999999999999999</x:v>
+        <x:v>0.046999999999999997</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:3">
       <x:c r="A113" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B113" s="1">
-        <x:v>0.96399999999999997</x:v>
+        <x:v>0.95299999999999996</x:v>
       </x:c>
       <x:c r="C113" s="1">
-        <x:v>0.035999999999999999</x:v>
+        <x:v>0.046999999999999997</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:3">
       <x:c r="A114" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B114" s="1">
-        <x:v>0.95499999999999996</x:v>
+        <x:v>0.97199999999999998</x:v>
       </x:c>
       <x:c r="C114" s="1">
-        <x:v>0.044999999999999996</x:v>
+        <x:v>0.028000000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:3">
       <x:c r="A115" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B115" s="1">
-        <x:v>0.95499999999999996</x:v>
+        <x:v>0.97199999999999998</x:v>
       </x:c>
       <x:c r="C115" s="1">
-        <x:v>0.044999999999999996</x:v>
+        <x:v>0.028000000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:3">
@@ -2684,928 +2726,928 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B116" s="1">
-        <x:v>0.95499999999999996</x:v>
+        <x:v>0.97199999999999998</x:v>
       </x:c>
       <x:c r="C116" s="1">
-        <x:v>0.044999999999999996</x:v>
+        <x:v>0.028000000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:3">
       <x:c r="A117" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B117" s="1">
-        <x:v>0.95499999999999996</x:v>
+        <x:v>0.97199999999999998</x:v>
       </x:c>
       <x:c r="C117" s="1">
-        <x:v>0.044999999999999996</x:v>
+        <x:v>0.028000000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:3">
       <x:c r="A118" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B118" s="1">
-        <x:v>0.95499999999999996</x:v>
+        <x:v>0.97199999999999998</x:v>
       </x:c>
       <x:c r="C118" s="1">
-        <x:v>0.044999999999999996</x:v>
+        <x:v>0.028000000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:3">
       <x:c r="A119" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B119" s="1">
-        <x:v>0.95499999999999996</x:v>
+        <x:v>0.97199999999999998</x:v>
       </x:c>
       <x:c r="C119" s="1">
-        <x:v>0.044999999999999996</x:v>
+        <x:v>0.028000000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:3">
       <x:c r="A120" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B120" s="1">
-        <x:v>0.95499999999999996</x:v>
+        <x:v>0.97199999999999998</x:v>
       </x:c>
       <x:c r="C120" s="1">
-        <x:v>0.044999999999999996</x:v>
+        <x:v>0.028000000000000003</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:3">
       <x:c r="A121" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B121" s="1">
-        <x:v>0.873</x:v>
+        <x:v>0.96399999999999997</x:v>
       </x:c>
       <x:c r="C121" s="1">
-        <x:v>0.127</x:v>
+        <x:v>0.035999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:3">
       <x:c r="A122" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B122" s="1">
-        <x:v>0.873</x:v>
+        <x:v>0.96399999999999997</x:v>
       </x:c>
       <x:c r="C122" s="1">
-        <x:v>0.127</x:v>
+        <x:v>0.035999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:3">
       <x:c r="A123" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B123" s="1">
-        <x:v>0.873</x:v>
+        <x:v>0.96399999999999997</x:v>
       </x:c>
       <x:c r="C123" s="1">
-        <x:v>0.127</x:v>
+        <x:v>0.035999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:3">
       <x:c r="A124" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B124" s="1">
-        <x:v>0.873</x:v>
+        <x:v>0.96399999999999997</x:v>
       </x:c>
       <x:c r="C124" s="1">
-        <x:v>0.127</x:v>
+        <x:v>0.035999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:3">
       <x:c r="A125" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B125" s="1">
-        <x:v>0.873</x:v>
+        <x:v>0.96399999999999997</x:v>
       </x:c>
       <x:c r="C125" s="1">
-        <x:v>0.127</x:v>
+        <x:v>0.035999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:3">
       <x:c r="A126" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B126" s="1">
-        <x:v>0.873</x:v>
+        <x:v>0.96399999999999997</x:v>
       </x:c>
       <x:c r="C126" s="1">
-        <x:v>0.127</x:v>
+        <x:v>0.035999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:3">
       <x:c r="A127" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B127" s="1">
-        <x:v>0.873</x:v>
+        <x:v>0.96399999999999997</x:v>
       </x:c>
       <x:c r="C127" s="1">
-        <x:v>0.127</x:v>
+        <x:v>0.035999999999999999</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:3">
       <x:c r="A128" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B128" s="1">
-        <x:v>0.73499999999999999</x:v>
+        <x:v>0.95499999999999996</x:v>
       </x:c>
       <x:c r="C128" s="1">
-        <x:v>0.26500000000000001</x:v>
+        <x:v>0.044999999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:3">
       <x:c r="A129" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B129" s="1">
-        <x:v>0.73499999999999999</x:v>
+        <x:v>0.95499999999999996</x:v>
       </x:c>
       <x:c r="C129" s="1">
-        <x:v>0.26500000000000001</x:v>
+        <x:v>0.044999999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:3">
       <x:c r="A130" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B130" s="1">
-        <x:v>0.73499999999999999</x:v>
+        <x:v>0.95499999999999996</x:v>
       </x:c>
       <x:c r="C130" s="1">
-        <x:v>0.26500000000000001</x:v>
+        <x:v>0.044999999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:3">
       <x:c r="A131" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B131" s="1">
-        <x:v>0.73499999999999999</x:v>
+        <x:v>0.95499999999999996</x:v>
       </x:c>
       <x:c r="C131" s="1">
-        <x:v>0.26500000000000001</x:v>
+        <x:v>0.044999999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:3">
       <x:c r="A132" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B132" s="1">
-        <x:v>0.73499999999999999</x:v>
+        <x:v>0.95499999999999996</x:v>
       </x:c>
       <x:c r="C132" s="1">
-        <x:v>0.26500000000000001</x:v>
+        <x:v>0.044999999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:3">
       <x:c r="A133" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B133" s="1">
-        <x:v>0.73499999999999999</x:v>
+        <x:v>0.95499999999999996</x:v>
       </x:c>
       <x:c r="C133" s="1">
-        <x:v>0.26500000000000001</x:v>
+        <x:v>0.044999999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:3">
       <x:c r="A134" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B134" s="1">
-        <x:v>0.73499999999999999</x:v>
+        <x:v>0.95499999999999996</x:v>
       </x:c>
       <x:c r="C134" s="1">
-        <x:v>0.26500000000000001</x:v>
+        <x:v>0.044999999999999996</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:3">
       <x:c r="A135" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B135" s="1">
-        <x:v>0.72278846153846155</x:v>
+        <x:v>0.873</x:v>
       </x:c>
       <x:c r="C135" s="1">
-        <x:v>0.27721153846153845</x:v>
+        <x:v>0.127</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:3">
       <x:c r="A136" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B136" s="1">
-        <x:v>0.71057692307692311</x:v>
+        <x:v>0.873</x:v>
       </x:c>
       <x:c r="C136" s="1">
-        <x:v>0.28942307692307689</x:v>
+        <x:v>0.127</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:3">
       <x:c r="A137" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B137" s="1">
-        <x:v>0.69836538461538467</x:v>
+        <x:v>0.873</x:v>
       </x:c>
       <x:c r="C137" s="1">
-        <x:v>0.30163461538461533</x:v>
+        <x:v>0.127</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:3">
       <x:c r="A138" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B138" s="1">
-        <x:v>0.68615384615384623</x:v>
+        <x:v>0.873</x:v>
       </x:c>
       <x:c r="C138" s="1">
-        <x:v>0.31384615384615377</x:v>
+        <x:v>0.127</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:3">
       <x:c r="A139" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B139" s="1">
-        <x:v>0.67394230769230778</x:v>
+        <x:v>0.873</x:v>
       </x:c>
       <x:c r="C139" s="1">
-        <x:v>0.32605769230769222</x:v>
+        <x:v>0.127</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:3">
       <x:c r="A140" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B140" s="1">
-        <x:v>0.66173076923076934</x:v>
+        <x:v>0.873</x:v>
       </x:c>
       <x:c r="C140" s="1">
-        <x:v>0.33826923076923066</x:v>
+        <x:v>0.127</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:3">
       <x:c r="A141" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B141" s="1">
-        <x:v>0.6495192307692309</x:v>
+        <x:v>0.873</x:v>
       </x:c>
       <x:c r="C141" s="1">
-        <x:v>0.3504807692307691</x:v>
+        <x:v>0.127</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:3">
       <x:c r="A142" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B142" s="1">
-        <x:v>0.63730769230769246</x:v>
+        <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="C142" s="1">
-        <x:v>0.36269230769230754</x:v>
+        <x:v>0.26500000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:3">
       <x:c r="A143" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B143" s="1">
-        <x:v>0.62509615384615402</x:v>
+        <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="C143" s="1">
-        <x:v>0.37490384615384598</x:v>
+        <x:v>0.26500000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:3">
       <x:c r="A144" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B144" s="1">
-        <x:v>0.61288461538461558</x:v>
+        <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="C144" s="1">
-        <x:v>0.38711538461538442</x:v>
+        <x:v>0.26500000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:3">
       <x:c r="A145" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B145" s="1">
-        <x:v>0.60067307692307714</x:v>
+        <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="C145" s="1">
-        <x:v>0.39932692307692286</x:v>
+        <x:v>0.26500000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:3">
       <x:c r="A146" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B146" s="1">
-        <x:v>0.5884615384615387</x:v>
+        <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="C146" s="1">
-        <x:v>0.4115384615384613</x:v>
+        <x:v>0.26500000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:3">
       <x:c r="A147" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B147" s="1">
-        <x:v>0.57625000000000026</x:v>
+        <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="C147" s="1">
-        <x:v>0.42374999999999974</x:v>
+        <x:v>0.26500000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:3">
       <x:c r="A148" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B148" s="1">
-        <x:v>0.56403846153846182</x:v>
+        <x:v>0.73499999999999999</x:v>
       </x:c>
       <x:c r="C148" s="1">
-        <x:v>0.43596153846153818</x:v>
+        <x:v>0.26500000000000001</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:3">
       <x:c r="A149" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B149" s="1">
-        <x:v>0.55182692307692338</x:v>
+        <x:v>0.72278846153846155</x:v>
       </x:c>
       <x:c r="C149" s="1">
-        <x:v>0.44817307692307662</x:v>
+        <x:v>0.27721153846153845</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:3">
       <x:c r="A150" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B150" s="1">
-        <x:v>0.53961538461538494</x:v>
+        <x:v>0.71057692307692311</x:v>
       </x:c>
       <x:c r="C150" s="1">
-        <x:v>0.46038461538461506</x:v>
+        <x:v>0.28942307692307689</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:3">
       <x:c r="A151" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B151" s="1">
-        <x:v>0.5274038461538465</x:v>
+        <x:v>0.69836538461538467</x:v>
       </x:c>
       <x:c r="C151" s="1">
-        <x:v>0.4725961538461535</x:v>
+        <x:v>0.30163461538461533</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:3">
       <x:c r="A152" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B152" s="1">
-        <x:v>0.51519230769230806</x:v>
+        <x:v>0.68615384615384623</x:v>
       </x:c>
       <x:c r="C152" s="1">
-        <x:v>0.48480769230769194</x:v>
+        <x:v>0.31384615384615377</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:3">
       <x:c r="A153" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B153" s="1">
-        <x:v>0.50298076923076962</x:v>
+        <x:v>0.67394230769230778</x:v>
       </x:c>
       <x:c r="C153" s="1">
-        <x:v>0.49701923076923038</x:v>
+        <x:v>0.32605769230769222</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:3">
       <x:c r="A154" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B154" s="1">
-        <x:v>0.49076923076923118</x:v>
+        <x:v>0.66173076923076934</x:v>
       </x:c>
       <x:c r="C154" s="1">
-        <x:v>0.50923076923076882</x:v>
+        <x:v>0.33826923076923066</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:3">
       <x:c r="A155" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B155" s="1">
-        <x:v>0.47855769230769274</x:v>
+        <x:v>0.6495192307692309</x:v>
       </x:c>
       <x:c r="C155" s="1">
-        <x:v>0.52144230769230726</x:v>
+        <x:v>0.3504807692307691</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:3">
       <x:c r="A156" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B156" s="1">
-        <x:v>0.4663461538461543</x:v>
+        <x:v>0.63730769230769246</x:v>
       </x:c>
       <x:c r="C156" s="1">
-        <x:v>0.5336538461538457</x:v>
+        <x:v>0.36269230769230754</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:3">
       <x:c r="A157" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B157" s="1">
-        <x:v>0.45413461538461586</x:v>
+        <x:v>0.62509615384615402</x:v>
       </x:c>
       <x:c r="C157" s="1">
-        <x:v>0.54586538461538414</x:v>
+        <x:v>0.37490384615384598</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:3">
       <x:c r="A158" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B158" s="1">
-        <x:v>0.44192307692307742</x:v>
+        <x:v>0.61288461538461558</x:v>
       </x:c>
       <x:c r="C158" s="1">
-        <x:v>0.55807692307692258</x:v>
+        <x:v>0.38711538461538442</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:3">
       <x:c r="A159" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B159" s="1">
-        <x:v>0.42971153846153898</x:v>
+        <x:v>0.60067307692307714</x:v>
       </x:c>
       <x:c r="C159" s="1">
-        <x:v>0.57028846153846102</x:v>
+        <x:v>0.39932692307692286</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:3">
       <x:c r="A160" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B160" s="1">
-        <x:v>0.41750000000000054</x:v>
+        <x:v>0.5884615384615387</x:v>
       </x:c>
       <x:c r="C160" s="1">
-        <x:v>0.58249999999999946</x:v>
+        <x:v>0.4115384615384613</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:3">
       <x:c r="A161" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B161" s="1">
-        <x:v>0.4052884615384621</x:v>
+        <x:v>0.57625000000000026</x:v>
       </x:c>
       <x:c r="C161" s="1">
-        <x:v>0.5947115384615379</x:v>
+        <x:v>0.42374999999999974</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:3">
       <x:c r="A162" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B162" s="1">
-        <x:v>0.39307692307692366</x:v>
+        <x:v>0.56403846153846182</x:v>
       </x:c>
       <x:c r="C162" s="1">
-        <x:v>0.60692307692307634</x:v>
+        <x:v>0.43596153846153818</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:3">
       <x:c r="A163" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B163" s="1">
-        <x:v>0.38086538461538522</x:v>
+        <x:v>0.55182692307692338</x:v>
       </x:c>
       <x:c r="C163" s="1">
-        <x:v>0.61913461538461478</x:v>
+        <x:v>0.44817307692307662</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:3">
       <x:c r="A164" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B164" s="1">
-        <x:v>0.36865384615384678</x:v>
+        <x:v>0.53961538461538494</x:v>
       </x:c>
       <x:c r="C164" s="1">
-        <x:v>0.63134615384615322</x:v>
+        <x:v>0.46038461538461506</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:3">
       <x:c r="A165" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B165" s="1">
-        <x:v>0.35644230769230834</x:v>
+        <x:v>0.5274038461538465</x:v>
       </x:c>
       <x:c r="C165" s="1">
-        <x:v>0.64355769230769166</x:v>
+        <x:v>0.4725961538461535</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:3">
       <x:c r="A166" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B166" s="1">
-        <x:v>0.3442307692307699</x:v>
+        <x:v>0.51519230769230806</x:v>
       </x:c>
       <x:c r="C166" s="1">
-        <x:v>0.6557692307692301</x:v>
+        <x:v>0.48480769230769194</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:3">
       <x:c r="A167" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B167" s="1">
-        <x:v>0.33201923076923145</x:v>
+        <x:v>0.50298076923076962</x:v>
       </x:c>
       <x:c r="C167" s="1">
-        <x:v>0.66798076923076855</x:v>
+        <x:v>0.49701923076923038</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:3">
       <x:c r="A168" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B168" s="1">
-        <x:v>0.31980769230769301</x:v>
+        <x:v>0.49076923076923118</x:v>
       </x:c>
       <x:c r="C168" s="1">
-        <x:v>0.68019230769230699</x:v>
+        <x:v>0.50923076923076882</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:3">
       <x:c r="A169" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B169" s="1">
-        <x:v>0.30759615384615457</x:v>
+        <x:v>0.47855769230769274</x:v>
       </x:c>
       <x:c r="C169" s="1">
-        <x:v>0.69240384615384543</x:v>
+        <x:v>0.52144230769230726</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:3">
       <x:c r="A170" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B170" s="1">
-        <x:v>0.29538461538461613</x:v>
+        <x:v>0.4663461538461543</x:v>
       </x:c>
       <x:c r="C170" s="1">
-        <x:v>0.70461538461538387</x:v>
+        <x:v>0.5336538461538457</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:3">
       <x:c r="A171" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B171" s="1">
-        <x:v>0.28317307692307769</x:v>
+        <x:v>0.45413461538461586</x:v>
       </x:c>
       <x:c r="C171" s="1">
-        <x:v>0.71682692307692231</x:v>
+        <x:v>0.54586538461538414</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:3">
       <x:c r="A172" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B172" s="1">
-        <x:v>0.27096153846153925</x:v>
+        <x:v>0.44192307692307742</x:v>
       </x:c>
       <x:c r="C172" s="1">
-        <x:v>0.72903846153846075</x:v>
+        <x:v>0.55807692307692258</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:3">
       <x:c r="A173" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B173" s="1">
-        <x:v>0.25875000000000081</x:v>
+        <x:v>0.42971153846153898</x:v>
       </x:c>
       <x:c r="C173" s="1">
-        <x:v>0.74124999999999919</x:v>
+        <x:v>0.57028846153846102</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:3">
       <x:c r="A174" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B174" s="1">
-        <x:v>0.24653846153846237</x:v>
+        <x:v>0.41750000000000054</x:v>
       </x:c>
       <x:c r="C174" s="1">
-        <x:v>0.75346153846153763</x:v>
+        <x:v>0.58249999999999946</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:3">
       <x:c r="A175" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B175" s="1">
-        <x:v>0.23432692307692393</x:v>
+        <x:v>0.4052884615384621</x:v>
       </x:c>
       <x:c r="C175" s="1">
-        <x:v>0.76567307692307607</x:v>
+        <x:v>0.5947115384615379</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:3">
       <x:c r="A176" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B176" s="1">
-        <x:v>0.22211538461538549</x:v>
+        <x:v>0.39307692307692366</x:v>
       </x:c>
       <x:c r="C176" s="1">
-        <x:v>0.77788461538461451</x:v>
+        <x:v>0.60692307692307634</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:3">
       <x:c r="A177" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B177" s="1">
-        <x:v>0.20990384615384705</x:v>
+        <x:v>0.38086538461538522</x:v>
       </x:c>
       <x:c r="C177" s="1">
-        <x:v>0.79009615384615295</x:v>
+        <x:v>0.61913461538461478</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:3">
       <x:c r="A178" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B178" s="1">
-        <x:v>0.19769230769230861</x:v>
+        <x:v>0.36865384615384678</x:v>
       </x:c>
       <x:c r="C178" s="1">
-        <x:v>0.80230769230769139</x:v>
+        <x:v>0.63134615384615322</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:3">
       <x:c r="A179" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B179" s="1">
-        <x:v>0.18548076923077017</x:v>
+        <x:v>0.35644230769230834</x:v>
       </x:c>
       <x:c r="C179" s="1">
-        <x:v>0.81451923076922983</x:v>
+        <x:v>0.64355769230769166</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:3">
       <x:c r="A180" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B180" s="1">
-        <x:v>0.17326923076923173</x:v>
+        <x:v>0.3442307692307699</x:v>
       </x:c>
       <x:c r="C180" s="1">
-        <x:v>0.82673076923076827</x:v>
+        <x:v>0.6557692307692301</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:3">
       <x:c r="A181" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B181" s="1">
-        <x:v>0.16105769230769329</x:v>
+        <x:v>0.33201923076923145</x:v>
       </x:c>
       <x:c r="C181" s="1">
-        <x:v>0.83894230769230671</x:v>
+        <x:v>0.66798076923076855</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:3">
       <x:c r="A182" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B182" s="1">
-        <x:v>0.14884615384615485</x:v>
+        <x:v>0.31980769230769301</x:v>
       </x:c>
       <x:c r="C182" s="1">
-        <x:v>0.85115384615384515</x:v>
+        <x:v>0.68019230769230699</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:3">
       <x:c r="A183" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B183" s="1">
-        <x:v>0.13663461538461641</x:v>
+        <x:v>0.30759615384615457</x:v>
       </x:c>
       <x:c r="C183" s="1">
-        <x:v>0.86336538461538359</x:v>
+        <x:v>0.69240384615384543</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:3">
       <x:c r="A184" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B184" s="1">
-        <x:v>0.12442307692307797</x:v>
+        <x:v>0.29538461538461613</x:v>
       </x:c>
       <x:c r="C184" s="1">
-        <x:v>0.87557692307692203</x:v>
+        <x:v>0.70461538461538387</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:3">
       <x:c r="A185" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B185" s="1">
-        <x:v>0.11221153846153953</x:v>
+        <x:v>0.28317307692307769</x:v>
       </x:c>
       <x:c r="C185" s="1">
-        <x:v>0.88778846153846047</x:v>
+        <x:v>0.71682692307692231</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:3">
       <x:c r="A186" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B186" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.27096153846153925</x:v>
       </x:c>
       <x:c r="C186" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.72903846153846075</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:3">
       <x:c r="A187" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B187" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.25875000000000081</x:v>
       </x:c>
       <x:c r="C187" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.74124999999999919</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:3">
       <x:c r="A188" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B188" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.24653846153846237</x:v>
       </x:c>
       <x:c r="C188" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.75346153846153763</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:3">
       <x:c r="A189" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B189" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.23432692307692393</x:v>
       </x:c>
       <x:c r="C189" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.76567307692307607</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:3">
       <x:c r="A190" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B190" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.22211538461538549</x:v>
       </x:c>
       <x:c r="C190" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.77788461538461451</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:3">
       <x:c r="A191" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B191" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.20990384615384705</x:v>
       </x:c>
       <x:c r="C191" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.79009615384615295</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:3">
       <x:c r="A192" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B192" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.19769230769230861</x:v>
       </x:c>
       <x:c r="C192" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.80230769230769139</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:3">
       <x:c r="A193" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B193" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.18548076923077017</x:v>
       </x:c>
       <x:c r="C193" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.81451923076922983</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:3">
       <x:c r="A194" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B194" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.17326923076923173</x:v>
       </x:c>
       <x:c r="C194" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.82673076923076827</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:3">
       <x:c r="A195" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B195" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.16105769230769329</x:v>
       </x:c>
       <x:c r="C195" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.83894230769230671</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:3">
       <x:c r="A196" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B196" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.14884615384615485</x:v>
       </x:c>
       <x:c r="C196" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.85115384615384515</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:3">
       <x:c r="A197" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B197" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.13663461538461641</x:v>
       </x:c>
       <x:c r="C197" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.86336538461538359</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:3">
       <x:c r="A198" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B198" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.12442307692307797</x:v>
       </x:c>
       <x:c r="C198" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.87557692307692203</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:3">
       <x:c r="A199" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B199" s="1">
-        <x:v>0.09999999999999998</x:v>
+        <x:v>0.11221153846153953</x:v>
       </x:c>
       <x:c r="C199" s="1">
-        <x:v>0.90000000000000002</x:v>
+        <x:v>0.88778846153846047</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:3">
       <x:c r="A200" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B200" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3616,7 +3658,7 @@
     </x:row>
     <x:row r="201" spans="1:3">
       <x:c r="A201" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B201" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3627,7 +3669,7 @@
     </x:row>
     <x:row r="202" spans="1:3">
       <x:c r="A202" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B202" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3638,7 +3680,7 @@
     </x:row>
     <x:row r="203" spans="1:3">
       <x:c r="A203" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B203" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3649,7 +3691,7 @@
     </x:row>
     <x:row r="204" spans="1:3">
       <x:c r="A204" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B204" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3660,7 +3702,7 @@
     </x:row>
     <x:row r="205" spans="1:3">
       <x:c r="A205" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B205" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3671,7 +3713,7 @@
     </x:row>
     <x:row r="206" spans="1:3">
       <x:c r="A206" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B206" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3682,7 +3724,7 @@
     </x:row>
     <x:row r="207" spans="1:3">
       <x:c r="A207" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B207" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3693,7 +3735,7 @@
     </x:row>
     <x:row r="208" spans="1:3">
       <x:c r="A208" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B208" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3704,7 +3746,7 @@
     </x:row>
     <x:row r="209" spans="1:3">
       <x:c r="A209" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B209" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3715,7 +3757,7 @@
     </x:row>
     <x:row r="210" spans="1:3">
       <x:c r="A210" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B210" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3726,7 +3768,7 @@
     </x:row>
     <x:row r="211" spans="1:3">
       <x:c r="A211" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B211" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3737,7 +3779,7 @@
     </x:row>
     <x:row r="212" spans="1:3">
       <x:c r="A212" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B212" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3748,7 +3790,7 @@
     </x:row>
     <x:row r="213" spans="1:3">
       <x:c r="A213" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B213" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3759,7 +3801,7 @@
     </x:row>
     <x:row r="214" spans="1:3">
       <x:c r="A214" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B214" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3770,7 +3812,7 @@
     </x:row>
     <x:row r="215" spans="1:3">
       <x:c r="A215" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B215" s="1">
         <x:v>0.09999999999999998</x:v>
@@ -3781,17 +3823,171 @@
     </x:row>
     <x:row r="216" spans="1:3">
       <x:c r="A216" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B216" s="1">
-        <x:v>0.10000000000000001</x:v>
+        <x:v>0.09999999999999998</x:v>
       </x:c>
       <x:c r="C216" s="1">
         <x:v>0.90000000000000002</x:v>
       </x:c>
     </x:row>
+    <x:row r="217" spans="1:3">
+      <x:c r="A217" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B217" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C217" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:3">
+      <x:c r="A218" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B218" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C218" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:3">
+      <x:c r="A219" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B219" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C219" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:3">
+      <x:c r="A220" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B220" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C220" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:3">
+      <x:c r="A221" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B221" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C221" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:3">
+      <x:c r="A222" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B222" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C222" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:3">
+      <x:c r="A223" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B223" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C223" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:3">
+      <x:c r="A224" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B224" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C224" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:3">
+      <x:c r="A225" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B225" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C225" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:3">
+      <x:c r="A226" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B226" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C226" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:3">
+      <x:c r="A227" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B227" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C227" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:3">
+      <x:c r="A228" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B228" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C228" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:3">
+      <x:c r="A229" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B229" s="1">
+        <x:v>0.09999999999999998</x:v>
+      </x:c>
+      <x:c r="C229" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:3">
+      <x:c r="A230" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B230" s="1">
+        <x:v>0.10000000000000001</x:v>
+      </x:c>
+      <x:c r="C230" s="1">
+        <x:v>0.90000000000000002</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>